--- a/02_Enhanced Data/logistics_companies.xlsx
+++ b/02_Enhanced Data/logistics_companies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\marwa\marwa\ITI\Grad. Project\generate data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\marwa\marwa\ITI\Grad. Project\02_Enhanced Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054521DB-A7DA-42C1-BFAF-0A297CF4B0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE9B2ED-95D4-4121-B9B1-514DB2B1B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2976" yWindow="2448" windowWidth="17280" windowHeight="9792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-2895" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -186,20 +200,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB26D311-AD27-484B-A04F-8C901A9A36C5}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FB26D311-AD27-484B-A04F-8C901A9A36C5}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E6" xr:uid="{FB26D311-AD27-484B-A04F-8C901A9A36C5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{04C79D21-0A6D-40C1-A8B5-9D66A60F8FF8}" name="logistics_company_id"/>
